--- a/results/mp/logistic/corona/confidence/84/topk-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/topk-0.2/avg_0.004_scores.xlsx
@@ -58,69 +58,69 @@
     <t>negative</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
@@ -130,19 +130,19 @@
     <t>please</t>
   </si>
   <si>
+    <t>share</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
-    <t>share</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>you</t>
+    <t>the</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -511,7 +511,7 @@
         <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -569,13 +569,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7465753424657534</v>
+        <v>0.7328767123287672</v>
       </c>
       <c r="C3">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D3">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -587,19 +587,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K3">
-        <v>0.9347826086956522</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -611,7 +611,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -619,13 +619,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.4338624338624338</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="C4">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D4">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -637,19 +637,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -669,13 +669,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.3333333333333333</v>
+        <v>0.3352713178294573</v>
       </c>
       <c r="C5">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D5">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -687,19 +687,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K5">
-        <v>0.925</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L5">
-        <v>111</v>
+        <v>42</v>
       </c>
       <c r="M5">
-        <v>111</v>
+        <v>42</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -711,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -719,13 +719,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1879194630872483</v>
+        <v>0.174496644295302</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -737,19 +737,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K6">
-        <v>0.8839285714285714</v>
+        <v>0.875</v>
       </c>
       <c r="L6">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M6">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -769,13 +769,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.1305555555555556</v>
+        <v>0.1722222222222222</v>
       </c>
       <c r="C7">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="D7">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -787,19 +787,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K7">
-        <v>0.835509138381201</v>
+        <v>0.8120104438642297</v>
       </c>
       <c r="L7">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="M7">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -811,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>63</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -819,13 +819,13 @@
         <v>19</v>
       </c>
       <c r="K8">
-        <v>0.8301886792452831</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L8">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="M8">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -845,13 +845,13 @@
         <v>20</v>
       </c>
       <c r="K9">
-        <v>0.8055555555555556</v>
+        <v>0.8018867924528302</v>
       </c>
       <c r="L9">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="M9">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -863,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -871,13 +871,13 @@
         <v>21</v>
       </c>
       <c r="K10">
-        <v>0.78125</v>
+        <v>0.79375</v>
       </c>
       <c r="L10">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="M10">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -889,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -897,13 +897,13 @@
         <v>22</v>
       </c>
       <c r="K11">
-        <v>0.7777777777777778</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L11">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="M11">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -923,13 +923,13 @@
         <v>23</v>
       </c>
       <c r="K12">
-        <v>0.7692307692307693</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L12">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M12">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -949,13 +949,13 @@
         <v>24</v>
       </c>
       <c r="K13">
-        <v>0.7682926829268293</v>
+        <v>0.78125</v>
       </c>
       <c r="L13">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="M13">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -967,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -975,13 +975,13 @@
         <v>25</v>
       </c>
       <c r="K14">
-        <v>0.7659574468085106</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L14">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="M14">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1001,13 +1001,13 @@
         <v>26</v>
       </c>
       <c r="K15">
-        <v>0.7586206896551724</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L15">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="M15">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1019,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1027,13 +1027,13 @@
         <v>27</v>
       </c>
       <c r="K16">
-        <v>0.7575757575757576</v>
+        <v>0.7464788732394366</v>
       </c>
       <c r="L16">
-        <v>25</v>
+        <v>106</v>
       </c>
       <c r="M16">
-        <v>25</v>
+        <v>106</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1045,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>8</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1053,13 +1053,13 @@
         <v>28</v>
       </c>
       <c r="K17">
-        <v>0.75</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L17">
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="M17">
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1079,13 +1079,13 @@
         <v>29</v>
       </c>
       <c r="K18">
-        <v>0.7464788732394366</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L18">
-        <v>106</v>
+        <v>26</v>
       </c>
       <c r="M18">
-        <v>106</v>
+        <v>26</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1097,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>36</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1105,13 +1105,13 @@
         <v>30</v>
       </c>
       <c r="K19">
-        <v>0.7291666666666666</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L19">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M19">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1157,13 +1157,13 @@
         <v>32</v>
       </c>
       <c r="K21">
-        <v>0.66</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="L21">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M21">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1183,13 +1183,13 @@
         <v>33</v>
       </c>
       <c r="K22">
-        <v>0.6058823529411764</v>
+        <v>0.638235294117647</v>
       </c>
       <c r="L22">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="M22">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1209,13 +1209,13 @@
         <v>34</v>
       </c>
       <c r="K23">
-        <v>0.6046511627906976</v>
+        <v>0.6</v>
       </c>
       <c r="L23">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M23">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1227,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1235,13 +1235,13 @@
         <v>35</v>
       </c>
       <c r="K24">
-        <v>0.6</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="L24">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M24">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1261,13 +1261,13 @@
         <v>36</v>
       </c>
       <c r="K25">
-        <v>0.5898305084745763</v>
+        <v>0.5694915254237288</v>
       </c>
       <c r="L25">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="M25">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1279,7 +1279,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1313,13 +1313,13 @@
         <v>38</v>
       </c>
       <c r="K27">
-        <v>0.5531914893617021</v>
+        <v>0.5571428571428572</v>
       </c>
       <c r="L27">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="M27">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1331,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1339,13 +1339,13 @@
         <v>39</v>
       </c>
       <c r="K28">
-        <v>0.5</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="L28">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="M28">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1365,13 +1365,13 @@
         <v>40</v>
       </c>
       <c r="K29">
-        <v>0.4831460674157304</v>
+        <v>0.449438202247191</v>
       </c>
       <c r="L29">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M29">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1383,7 +1383,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1391,25 +1391,25 @@
         <v>41</v>
       </c>
       <c r="K30">
-        <v>0.358974358974359</v>
+        <v>0.006216006216006216</v>
       </c>
       <c r="L30">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M30">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="N30">
-        <v>1</v>
+        <v>0.65</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="P30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30">
-        <v>50</v>
+        <v>5116</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1417,25 +1417,25 @@
         <v>42</v>
       </c>
       <c r="K31">
-        <v>0.02085070892410342</v>
+        <v>0.005422775657762603</v>
       </c>
       <c r="L31">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M31">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="N31">
-        <v>0.96</v>
+        <v>0.61</v>
       </c>
       <c r="O31">
-        <v>0.04000000000000004</v>
+        <v>0.39</v>
       </c>
       <c r="P31" t="b">
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>1174</v>
+        <v>4952</v>
       </c>
     </row>
   </sheetData>
